--- a/output/StructureDefinition-clinical-study.xlsx
+++ b/output/StructureDefinition-clinical-study.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3321" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3321" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://docilium.health/fhir/ctpm/StructureDefinition/clinical-study</t>
+    <t>http://docelium.health/StructureDefinition/clinical-study</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-07T16:24:07+01:00</t>
+    <t>2025-12-07T21:23:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOCILIUM</t>
+    <t>DOCELIUM</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>DOCILIUM (http://docilium.org)</t>
+    <t>DOCELIUM (http://docelium.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -499,6 +499,9 @@
     <t>ResearchStudy.identifier</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
@@ -1006,7 +1009,7 @@
     <t>Additional grouping mechanism or categorization of a research study. Example: FDA regulated device, FDA regulated drug, MPG Paragraph 23b (a German legal requirement), IRB-exempt, etc. Implementation Note: do not use the classifier element to support existing semantics that are already supported thru explicit elements in the resource.</t>
   </si>
   <si>
-    <t>http://docilium.health/fhir/ctpm/ValueSet/therapeutic-areas</t>
+    <t>http://docelium.health/fhir/ctpm/ValueSet/therapeutic-areas</t>
   </si>
   <si>
     <t>ResearchStudy.associatedParty</t>
@@ -3174,7 +3177,7 @@
         <v>91</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>92</v>
@@ -3186,17 +3189,17 @@
         <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3260,27 +3263,27 @@
         <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3303,13 +3306,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3360,7 +3363,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3392,10 +3395,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3418,13 +3421,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3475,7 +3478,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3507,10 +3510,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3533,13 +3536,13 @@
         <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3590,7 +3593,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3608,7 +3611,7 @@
         <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -3617,15 +3620,15 @@
         <v>20</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3648,13 +3651,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3705,7 +3708,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3737,10 +3740,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3763,13 +3766,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3820,7 +3823,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3829,7 +3832,7 @@
         <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>20</v>
@@ -3844,7 +3847,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -3852,10 +3855,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3884,7 +3887,7 @@
         <v>140</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>142</v>
@@ -3937,7 +3940,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3961,7 +3964,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -3969,14 +3972,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3998,10 +4001,10 @@
         <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>142</v>
@@ -4056,7 +4059,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4088,10 +4091,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4114,13 +4117,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4147,13 +4150,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -4171,7 +4174,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4203,10 +4206,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4229,13 +4232,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4286,7 +4289,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4318,10 +4321,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4344,13 +4347,13 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4401,7 +4404,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4419,28 +4422,28 @@
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4459,17 +4462,17 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4518,7 +4521,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4536,13 +4539,13 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4550,10 +4553,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4576,13 +4579,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4633,7 +4636,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4651,7 +4654,7 @@
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -4660,15 +4663,15 @@
         <v>20</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4691,13 +4694,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4748,7 +4751,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4780,10 +4783,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4809,10 +4812,10 @@
         <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4842,10 +4845,10 @@
         <v>115</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4863,7 +4866,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>91</v>
@@ -4878,16 +4881,16 @@
         <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4895,10 +4898,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4921,13 +4924,13 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4954,13 +4957,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4978,7 +4981,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4996,7 +4999,7 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
@@ -5010,10 +5013,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5036,13 +5039,13 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5069,13 +5072,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5093,7 +5096,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5111,7 +5114,7 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
@@ -5120,15 +5123,15 @@
         <v>20</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5151,13 +5154,13 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5184,13 +5187,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5208,7 +5211,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5226,7 +5229,7 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -5235,15 +5238,15 @@
         <v>20</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5266,13 +5269,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5299,13 +5302,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5323,7 +5326,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5355,10 +5358,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5381,13 +5384,13 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5414,13 +5417,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5438,7 +5441,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5453,10 +5456,10 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -5465,15 +5468,15 @@
         <v>20</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5496,13 +5499,13 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5529,10 +5532,10 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>20</v>
@@ -5553,7 +5556,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5571,7 +5574,7 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
@@ -5580,15 +5583,15 @@
         <v>20</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5611,13 +5614,13 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5644,13 +5647,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5668,7 +5671,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5686,7 +5689,7 @@
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5700,10 +5703,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5726,13 +5729,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5783,7 +5786,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5815,10 +5818,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5841,13 +5844,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5898,7 +5901,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5916,7 +5919,7 @@
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
@@ -5925,19 +5928,19 @@
         <v>20</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5956,13 +5959,13 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6013,7 +6016,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6028,27 +6031,27 @@
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6071,13 +6074,13 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6128,7 +6131,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6143,10 +6146,10 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -6155,15 +6158,15 @@
         <v>20</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6186,13 +6189,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6243,7 +6246,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6261,13 +6264,13 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6275,10 +6278,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6301,13 +6304,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6338,7 +6341,7 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6356,7 +6359,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6388,10 +6391,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6414,19 +6417,19 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6475,7 +6478,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6507,10 +6510,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6533,13 +6536,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6590,7 +6593,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6599,7 +6602,7 @@
         <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>20</v>
@@ -6614,7 +6617,7 @@
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6622,10 +6625,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6654,7 +6657,7 @@
         <v>140</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>142</v>
@@ -6707,7 +6710,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6731,7 +6734,7 @@
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6739,14 +6742,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6768,10 +6771,10 @@
         <v>139</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>142</v>
@@ -6826,7 +6829,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6858,10 +6861,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6884,13 +6887,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6941,7 +6944,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6973,10 +6976,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6999,13 +7002,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7032,13 +7035,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7056,7 +7059,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>91</v>
@@ -7088,10 +7091,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7114,16 +7117,16 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7173,7 +7176,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7205,10 +7208,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7231,13 +7234,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7264,13 +7267,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7288,7 +7291,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7320,10 +7323,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7346,16 +7349,16 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7405,7 +7408,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7437,10 +7440,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7463,13 +7466,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7520,7 +7523,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7552,10 +7555,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7578,13 +7581,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7635,7 +7638,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7644,7 +7647,7 @@
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>20</v>
@@ -7659,7 +7662,7 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7667,10 +7670,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7699,7 +7702,7 @@
         <v>140</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>142</v>
@@ -7752,7 +7755,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7776,7 +7779,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7784,14 +7787,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7813,10 +7816,10 @@
         <v>139</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>142</v>
@@ -7871,7 +7874,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7903,10 +7906,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7929,13 +7932,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7962,13 +7965,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -7986,7 +7989,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>91</v>
@@ -8018,10 +8021,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8044,13 +8047,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8101,7 +8104,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8133,10 +8136,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8159,13 +8162,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8216,7 +8219,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8248,10 +8251,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8274,13 +8277,13 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8307,13 +8310,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8331,7 +8334,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8346,10 +8349,10 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8358,15 +8361,15 @@
         <v>20</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8389,13 +8392,13 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8446,7 +8449,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8461,27 +8464,27 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8504,13 +8507,13 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8561,7 +8564,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8570,7 +8573,7 @@
         <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>20</v>
@@ -8585,7 +8588,7 @@
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -8593,10 +8596,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8625,7 +8628,7 @@
         <v>140</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>142</v>
@@ -8678,7 +8681,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8702,7 +8705,7 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -8710,14 +8713,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8739,10 +8742,10 @@
         <v>139</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>142</v>
@@ -8797,7 +8800,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8829,10 +8832,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8855,13 +8858,13 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8912,7 +8915,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8944,10 +8947,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8970,13 +8973,13 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9027,7 +9030,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9059,10 +9062,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9085,13 +9088,13 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9142,7 +9145,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9174,10 +9177,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9200,13 +9203,13 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9257,7 +9260,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9272,31 +9275,31 @@
         <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9315,16 +9318,16 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9374,7 +9377,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9392,7 +9395,7 @@
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
@@ -9401,15 +9404,15 @@
         <v>20</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9432,13 +9435,13 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9489,7 +9492,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9498,7 +9501,7 @@
         <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>20</v>
@@ -9513,7 +9516,7 @@
         <v>20</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -9521,10 +9524,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9553,7 +9556,7 @@
         <v>140</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>142</v>
@@ -9606,7 +9609,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9630,7 +9633,7 @@
         <v>20</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -9638,14 +9641,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9667,10 +9670,10 @@
         <v>139</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>142</v>
@@ -9725,7 +9728,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9757,10 +9760,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9786,10 +9789,10 @@
         <v>93</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9840,7 +9843,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9872,10 +9875,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9898,13 +9901,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9955,7 +9958,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>91</v>
@@ -9973,7 +9976,7 @@
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>20</v>
@@ -9982,15 +9985,15 @@
         <v>20</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10013,13 +10016,13 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10046,13 +10049,13 @@
         <v>20</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>20</v>
@@ -10070,7 +10073,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10088,7 +10091,7 @@
         <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>20</v>
@@ -10097,15 +10100,15 @@
         <v>20</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10128,13 +10131,13 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10185,7 +10188,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10203,7 +10206,7 @@
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>20</v>
@@ -10212,15 +10215,15 @@
         <v>20</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10243,17 +10246,17 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10302,7 +10305,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10334,10 +10337,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10360,17 +10363,17 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -10419,7 +10422,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10451,10 +10454,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10477,13 +10480,13 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10534,7 +10537,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10552,7 +10555,7 @@
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>20</v>
@@ -10566,10 +10569,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10592,13 +10595,13 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10649,7 +10652,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10658,7 +10661,7 @@
         <v>91</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>20</v>
@@ -10673,7 +10676,7 @@
         <v>20</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>20</v>
@@ -10681,10 +10684,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10713,7 +10716,7 @@
         <v>140</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>142</v>
@@ -10766,7 +10769,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10790,7 +10793,7 @@
         <v>20</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>20</v>
@@ -10798,14 +10801,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10827,10 +10830,10 @@
         <v>139</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>142</v>
@@ -10885,7 +10888,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10917,10 +10920,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10943,13 +10946,13 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11000,7 +11003,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11018,7 +11021,7 @@
         <v>20</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>20</v>
@@ -11032,10 +11035,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11058,13 +11061,13 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11091,13 +11094,13 @@
         <v>20</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>20</v>
@@ -11115,7 +11118,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11133,7 +11136,7 @@
         <v>20</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>20</v>
@@ -11147,10 +11150,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11173,13 +11176,13 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11230,7 +11233,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11262,10 +11265,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11288,16 +11291,16 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11347,7 +11350,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11379,10 +11382,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11405,13 +11408,13 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11462,7 +11465,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11471,7 +11474,7 @@
         <v>91</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>20</v>
@@ -11486,7 +11489,7 @@
         <v>20</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>20</v>
@@ -11494,10 +11497,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11526,7 +11529,7 @@
         <v>140</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>142</v>
@@ -11579,7 +11582,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11603,7 +11606,7 @@
         <v>20</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>20</v>
@@ -11611,14 +11614,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11640,10 +11643,10 @@
         <v>139</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>142</v>
@@ -11698,7 +11701,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -11730,10 +11733,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11756,13 +11759,13 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11813,7 +11816,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -11845,10 +11848,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11871,13 +11874,13 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11904,13 +11907,13 @@
         <v>20</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>20</v>
@@ -11928,7 +11931,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -11960,10 +11963,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11986,13 +11989,13 @@
         <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12043,7 +12046,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12075,10 +12078,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12101,13 +12104,13 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12158,7 +12161,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12190,10 +12193,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12216,13 +12219,13 @@
         <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12273,7 +12276,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>

--- a/output/StructureDefinition-clinical-study.xlsx
+++ b/output/StructureDefinition-clinical-study.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-07T21:23:47+01:00</t>
+    <t>2025-12-07T21:41:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
